--- a/data/158/JREI/ULPI.xlsx
+++ b/data/158/JREI/ULPI.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ULPI" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,392 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>1985-S1</t>
-  </si>
-  <si>
-    <t>1985-S2</t>
-  </si>
-  <si>
-    <t>1986-S1</t>
-  </si>
-  <si>
-    <t>1986-S2</t>
-  </si>
-  <si>
-    <t>1987-S1</t>
-  </si>
-  <si>
-    <t>1987-S2</t>
-  </si>
-  <si>
-    <t>1988-S1</t>
-  </si>
-  <si>
-    <t>1988-S2</t>
-  </si>
-  <si>
-    <t>1989-S1</t>
-  </si>
-  <si>
-    <t>1989-S2</t>
-  </si>
-  <si>
-    <t>1990-S1</t>
-  </si>
-  <si>
-    <t>1990-S2</t>
-  </si>
-  <si>
-    <t>1991-S1</t>
-  </si>
-  <si>
-    <t>1991-S2</t>
-  </si>
-  <si>
-    <t>1992-S1</t>
-  </si>
-  <si>
-    <t>1992-S2</t>
-  </si>
-  <si>
-    <t>1993-S1</t>
-  </si>
-  <si>
-    <t>1993-S2</t>
-  </si>
-  <si>
-    <t>1994-S1</t>
-  </si>
-  <si>
-    <t>1994-S2</t>
-  </si>
-  <si>
-    <t>1995-S1</t>
-  </si>
-  <si>
-    <t>1995-S2</t>
-  </si>
-  <si>
-    <t>1996-S1</t>
-  </si>
-  <si>
-    <t>1996-S2</t>
-  </si>
-  <si>
-    <t>1997-S1</t>
-  </si>
-  <si>
-    <t>1997-S2</t>
-  </si>
-  <si>
-    <t>1998-S1</t>
-  </si>
-  <si>
-    <t>1998-S2</t>
-  </si>
-  <si>
-    <t>1999-S1</t>
-  </si>
-  <si>
-    <t>1999-S2</t>
-  </si>
-  <si>
-    <t>2000-S1</t>
-  </si>
-  <si>
-    <t>2000-S2</t>
-  </si>
-  <si>
-    <t>2001-S1</t>
-  </si>
-  <si>
-    <t>2001-S2</t>
-  </si>
-  <si>
-    <t>2002-S1</t>
-  </si>
-  <si>
-    <t>2002-S2</t>
-  </si>
-  <si>
-    <t>2003-S1</t>
-  </si>
-  <si>
-    <t>2003-S2</t>
-  </si>
-  <si>
-    <t>2004-S1</t>
-  </si>
-  <si>
-    <t>2004-S2</t>
-  </si>
-  <si>
-    <t>2005-S1</t>
-  </si>
-  <si>
-    <t>2005-S2</t>
-  </si>
-  <si>
-    <t>2006-S1</t>
-  </si>
-  <si>
-    <t>2006-S2</t>
-  </si>
-  <si>
-    <t>2007-S1</t>
-  </si>
-  <si>
-    <t>2007-S2</t>
-  </si>
-  <si>
-    <t>2008-S1</t>
-  </si>
-  <si>
-    <t>2008-S2</t>
-  </si>
-  <si>
-    <t>2009-S1</t>
-  </si>
-  <si>
-    <t>2009-S2</t>
-  </si>
-  <si>
-    <t>2010-S1</t>
-  </si>
-  <si>
-    <t>2010-S2</t>
-  </si>
-  <si>
-    <t>2011-S1</t>
-  </si>
-  <si>
-    <t>2011-S2</t>
-  </si>
-  <si>
-    <t>2012-S1</t>
-  </si>
-  <si>
-    <t>2012-S2</t>
-  </si>
-  <si>
-    <t>2013-S1</t>
-  </si>
-  <si>
-    <t>2013-S2</t>
-  </si>
-  <si>
-    <t>2014-S1</t>
-  </si>
-  <si>
-    <t>2014-S2</t>
-  </si>
-  <si>
-    <t>2015-S1</t>
-  </si>
-  <si>
-    <t>2015-S2</t>
-  </si>
-  <si>
-    <t>2016-S1</t>
-  </si>
-  <si>
-    <t>2016-S2</t>
-  </si>
-  <si>
-    <t>2017-S1</t>
-  </si>
-  <si>
-    <t>2017-S2</t>
-  </si>
-  <si>
-    <t>2018-S1</t>
-  </si>
-  <si>
-    <t>2018-S2</t>
-  </si>
-  <si>
-    <t>2019-S1</t>
-  </si>
-  <si>
-    <t>2019-S2</t>
-  </si>
-  <si>
-    <t>2020-S1</t>
-  </si>
-  <si>
-    <t>2020-S2</t>
-  </si>
-  <si>
-    <t>2021-S1</t>
-  </si>
-  <si>
-    <t>2021-S2</t>
-  </si>
-  <si>
-    <t>DataSet</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>form_c</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>JREIPH01</t>
-  </si>
-  <si>
-    <t>Nationwide_historical</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Nationwide, Commercial</t>
-  </si>
-  <si>
-    <t>Not Seasonally Adjusted</t>
-  </si>
-  <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>Non-Residential Property/Commercial Prices</t>
-  </si>
-  <si>
-    <t>Index: 2010-S1=100</t>
-  </si>
-  <si>
-    <t>JREIPH02</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Nationwide, Residential</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>Land</t>
-  </si>
-  <si>
-    <t>JREIPH03</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Nationwide, Industrial</t>
-  </si>
-  <si>
-    <t>Industrial</t>
-  </si>
-  <si>
-    <t>JREIPH04</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Nationwide, Average of Three Categories</t>
-  </si>
-  <si>
-    <t>Average of Three Categories</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>JREIPH05</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Nationwide, The Highest Price Lot</t>
-  </si>
-  <si>
-    <t>The Highest Price Lot</t>
-  </si>
-  <si>
-    <t>JREIPH06</t>
-  </si>
-  <si>
-    <t>Six Large City Areas_historical</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Six Large City Areas, Commercial</t>
-  </si>
-  <si>
-    <t>Non-Residential Property\Commercial Prices</t>
-  </si>
-  <si>
-    <t>JREIPH07</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Six Large City Areas, Residential</t>
-  </si>
-  <si>
-    <t>JREIPH08</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Six Large City Areas, Industrial</t>
-  </si>
-  <si>
-    <t>JREIPH09</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Six Large City Areas, Average of Three Categories</t>
-  </si>
-  <si>
-    <t>JREIPH10</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Six Large City Areas, The Highest Price Lot</t>
-  </si>
-  <si>
-    <t>JREIPH11</t>
-  </si>
-  <si>
-    <t>NESLCA_historical</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Nationwide excluding Six Large City Areas, Commercial</t>
-  </si>
-  <si>
-    <t>JREIPH12</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Nationwide excluding Six Large City Areas, Residential</t>
-  </si>
-  <si>
-    <t>JREIPH13</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Nationwide excluding Six Large City Areas, Industrial</t>
-  </si>
-  <si>
-    <t>JREIPH14</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Nationwide excluding Six Large City Areas, Average of Three Categories</t>
-  </si>
-  <si>
-    <t>JREIPH15</t>
-  </si>
-  <si>
-    <t>Property Prices, Urban Land Price Index, Nationwide excluding Six Large City Areas, The Highest Price Lot</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -752,295 +366,463 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:83">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>82</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1985-S1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1985-S2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1986-S1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1986-S2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1987-S1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1987-S2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1988-S1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1988-S2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1989-S1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1989-S2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1990-S1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1990-S2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1991-S1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1991-S2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1992-S1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1992-S2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1993-S1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1993-S2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1994-S1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1994-S2</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1995-S1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1995-S2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1996-S1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1996-S2</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1997-S1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1997-S2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1998-S1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1998-S2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1999-S1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1999-S2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2000-S1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2000-S2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2001-S1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2001-S2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-S1</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2002-S2</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2003-S1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2003-S2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2004-S1</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2004-S2</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2005-S1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-S2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2006-S1</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2006-S2</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2007-S1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2007-S2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2008-S1</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2008-S2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-S1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2009-S2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-S1</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2010-S2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2011-S1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2011-S2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2012-S1</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2012-S2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2013-S1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2013-S2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2014-S1</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-S2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-S1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2015-S2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2016-S1</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2016-S2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2017-S1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2017-S2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2018-S1</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-S2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-S1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2019-S2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-S1</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-S2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2021-S1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2021-S2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>DataSet</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>form_c</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:83">
-      <c r="A2" s="1" t="s">
-        <v>83</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH01</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>218.3</v>
       </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
         <v>354.8</v>
       </c>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
-      <c r="V2" t="s"/>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
-      <c r="Z2" t="s"/>
-      <c r="AA2" t="s"/>
-      <c r="AB2" t="s"/>
-      <c r="AC2" t="s"/>
-      <c r="AD2" t="s"/>
-      <c r="AE2" t="s"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
         <v>202.4</v>
       </c>
@@ -1173,67 +955,83 @@
       <c r="BW2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="BX2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CC2" t="s"/>
-      <c r="CD2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>89</v>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>Nationwide_historical</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>JREIPH01</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Nationwide, Commercial</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>Commercial</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>Non-Residential Property/Commercial Prices</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:83">
-      <c r="A3" s="1" t="s">
-        <v>90</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH02</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>126.1</v>
       </c>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>173.4</v>
       </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
-      <c r="Z3" t="s"/>
-      <c r="AA3" t="s"/>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="s"/>
-      <c r="AE3" t="s"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
         <v>150.9</v>
       </c>
@@ -1366,67 +1164,83 @@
       <c r="BW3" t="n">
         <v>90.5</v>
       </c>
-      <c r="BX3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>91</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC3" t="s"/>
-      <c r="CD3" t="s">
-        <v>93</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>89</v>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>Nationwide_historical</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>JREIPH02</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Nationwide, Residential</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>Land</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:83">
-      <c r="A4" s="1" t="s">
-        <v>94</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH03</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>139.7</v>
       </c>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>193</v>
       </c>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="s"/>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
-      <c r="Z4" t="s"/>
-      <c r="AA4" t="s"/>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="s"/>
-      <c r="AE4" t="s"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
         <v>172.9</v>
       </c>
@@ -1559,67 +1373,83 @@
       <c r="BW4" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="BX4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>96</v>
-      </c>
-      <c r="CC4" t="s"/>
-      <c r="CD4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>89</v>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>Nationwide_historical</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>JREIPH03</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Nationwide, Industrial</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>Non-Residential Property/Commercial Prices</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:83">
-      <c r="A5" s="1" t="s">
-        <v>97</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH04</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>159.1</v>
       </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>232.9</v>
       </c>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
-      <c r="Z5" t="s"/>
-      <c r="AA5" t="s"/>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
-      <c r="AD5" t="s"/>
-      <c r="AE5" t="s"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
         <v>174.2</v>
       </c>
@@ -1752,67 +1582,83 @@
       <c r="BW5" t="n">
         <v>88.7</v>
       </c>
-      <c r="BX5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>99</v>
-      </c>
-      <c r="CC5" t="s"/>
-      <c r="CD5" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>89</v>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>Nationwide_historical</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>JREIPH04</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Nationwide, Average of Three Categories</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>Average of Three Categories</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:83">
-      <c r="A6" s="1" t="s">
-        <v>101</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH05</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>272.2</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>507.8</v>
       </c>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
-      <c r="Z6" t="s"/>
-      <c r="AA6" t="s"/>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="s"/>
-      <c r="AE6" t="s"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
         <v>224.5</v>
       </c>
@@ -1945,67 +1791,83 @@
       <c r="BW6" t="n">
         <v>92.59999999999999</v>
       </c>
-      <c r="BX6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>101</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>102</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC6" t="s"/>
-      <c r="CD6" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>89</v>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>Nationwide_historical</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>JREIPH05</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Nationwide, The Highest Price Lot</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>The Highest Price Lot</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:83">
-      <c r="A7" s="1" t="s">
-        <v>104</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH06</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>168.9</v>
       </c>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>658.5</v>
       </c>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="s"/>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="s"/>
-      <c r="AE7" t="s"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
         <v>131.2</v>
       </c>
@@ -2138,67 +2000,83 @@
       <c r="BW7" t="n">
         <v>138.7</v>
       </c>
-      <c r="BX7" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>106</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>87</v>
-      </c>
-      <c r="CC7" t="s"/>
-      <c r="CD7" t="s">
-        <v>107</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>89</v>
+      <c r="BX7" t="inlineStr">
+        <is>
+          <t>Six Large City Areas_historical</t>
+        </is>
+      </c>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>JREIPH06</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Six Large City Areas, Commercial</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>Commercial</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>Non-Residential Property\Commercial Prices</t>
+        </is>
+      </c>
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:83">
-      <c r="A8" s="1" t="s">
-        <v>108</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH07</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>108.1</v>
       </c>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>284.7</v>
       </c>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
-      <c r="AE8" t="s"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
         <v>130.1</v>
       </c>
@@ -2331,67 +2209,83 @@
       <c r="BW8" t="n">
         <v>104.2</v>
       </c>
-      <c r="BX8" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>108</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>109</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC8" t="s"/>
-      <c r="CD8" t="s">
-        <v>93</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>89</v>
+      <c r="BX8" t="inlineStr">
+        <is>
+          <t>Six Large City Areas_historical</t>
+        </is>
+      </c>
+      <c r="BY8" t="inlineStr">
+        <is>
+          <t>JREIPH07</t>
+        </is>
+      </c>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Six Large City Areas, Residential</t>
+        </is>
+      </c>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>Land</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:83">
-      <c r="A9" s="1" t="s">
-        <v>110</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH08</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>133.9</v>
       </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>337.8</v>
       </c>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
-      <c r="AE9" t="s"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
         <v>172.4</v>
       </c>
@@ -2524,67 +2418,83 @@
       <c r="BW9" t="n">
         <v>107.9</v>
       </c>
-      <c r="BX9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>111</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>96</v>
-      </c>
-      <c r="CC9" t="s"/>
-      <c r="CD9" t="s">
-        <v>107</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>89</v>
+      <c r="BX9" t="inlineStr">
+        <is>
+          <t>Six Large City Areas_historical</t>
+        </is>
+      </c>
+      <c r="BY9" t="inlineStr">
+        <is>
+          <t>JREIPH08</t>
+        </is>
+      </c>
+      <c r="BZ9" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Six Large City Areas, Industrial</t>
+        </is>
+      </c>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>Non-Residential Property\Commercial Prices</t>
+        </is>
+      </c>
+      <c r="CE9" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:83">
-      <c r="A10" s="1" t="s">
-        <v>112</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH09</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>131.2</v>
       </c>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>390.9</v>
       </c>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
-      <c r="Z10" t="s"/>
-      <c r="AA10" t="s"/>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="s"/>
-      <c r="AE10" t="s"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="n">
         <v>141.4</v>
       </c>
@@ -2717,67 +2627,83 @@
       <c r="BW10" t="n">
         <v>117.4</v>
       </c>
-      <c r="BX10" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>113</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>99</v>
-      </c>
-      <c r="CC10" t="s"/>
-      <c r="CD10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE10" t="s">
-        <v>89</v>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>Six Large City Areas_historical</t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>JREIPH09</t>
+        </is>
+      </c>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Six Large City Areas, Average of Three Categories</t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>Average of Three Categories</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:83">
-      <c r="A11" s="1" t="s">
-        <v>114</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH10</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>110.1</v>
       </c>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>447.4</v>
       </c>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="s"/>
-      <c r="AE11" t="s"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="n">
         <v>82.2</v>
       </c>
@@ -2910,67 +2836,83 @@
       <c r="BW11" t="n">
         <v>198.7</v>
       </c>
-      <c r="BX11" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>114</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>115</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC11" t="s"/>
-      <c r="CD11" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>89</v>
+      <c r="BX11" t="inlineStr">
+        <is>
+          <t>Six Large City Areas_historical</t>
+        </is>
+      </c>
+      <c r="BY11" t="inlineStr">
+        <is>
+          <t>JREIPH10</t>
+        </is>
+      </c>
+      <c r="BZ11" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Six Large City Areas, The Highest Price Lot</t>
+        </is>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>The Highest Price Lot</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="12" spans="1:83">
-      <c r="A12" s="1" t="s">
-        <v>116</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH11</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>224.3</v>
       </c>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>348.8</v>
       </c>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
-      <c r="Z12" t="s"/>
-      <c r="AA12" t="s"/>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="s"/>
-      <c r="AE12" t="s"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="n">
         <v>205.1</v>
       </c>
@@ -3103,67 +3045,83 @@
       <c r="BW12" t="n">
         <v>86.8</v>
       </c>
-      <c r="BX12" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>116</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>118</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>87</v>
-      </c>
-      <c r="CC12" t="s"/>
-      <c r="CD12" t="s">
-        <v>107</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>89</v>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>NESLCA_historical</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>JREIPH11</t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Nationwide excluding Six Large City Areas, Commercial</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>Commercial</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>Non-Residential Property\Commercial Prices</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="13" spans="1:83">
-      <c r="A13" s="1" t="s">
-        <v>119</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH12</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>128</v>
       </c>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>170.8</v>
       </c>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="s"/>
-      <c r="AE13" t="s"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="n">
         <v>151.6</v>
       </c>
@@ -3296,67 +3254,83 @@
       <c r="BW13" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="BX13" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>119</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>120</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC13" t="s"/>
-      <c r="CD13" t="s">
-        <v>93</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>89</v>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t>NESLCA_historical</t>
+        </is>
+      </c>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>JREIPH12</t>
+        </is>
+      </c>
+      <c r="BZ13" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Nationwide excluding Six Large City Areas, Residential</t>
+        </is>
+      </c>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB13" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>Land</t>
+        </is>
+      </c>
+      <c r="CE13" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="14" spans="1:83">
-      <c r="A14" s="1" t="s">
-        <v>121</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH13</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>141.6</v>
       </c>
-      <c r="C14" t="s"/>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>187.7</v>
       </c>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s"/>
-      <c r="AE14" t="s"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="n">
         <v>172.6</v>
       </c>
@@ -3489,67 +3463,83 @@
       <c r="BW14" t="n">
         <v>86.3</v>
       </c>
-      <c r="BX14" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>122</v>
-      </c>
-      <c r="CA14" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>96</v>
-      </c>
-      <c r="CC14" t="s"/>
-      <c r="CD14" t="s">
-        <v>107</v>
-      </c>
-      <c r="CE14" t="s">
-        <v>89</v>
+      <c r="BX14" t="inlineStr">
+        <is>
+          <t>NESLCA_historical</t>
+        </is>
+      </c>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>JREIPH13</t>
+        </is>
+      </c>
+      <c r="BZ14" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Nationwide excluding Six Large City Areas, Industrial</t>
+        </is>
+      </c>
+      <c r="CA14" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB14" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>Non-Residential Property\Commercial Prices</t>
+        </is>
+      </c>
+      <c r="CE14" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="15" spans="1:83">
-      <c r="A15" s="1" t="s">
-        <v>123</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH14</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>162.5</v>
       </c>
-      <c r="C15" t="s"/>
-      <c r="D15" t="s"/>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-      <c r="K15" t="s"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>229.2</v>
       </c>
-      <c r="M15" t="s"/>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
-      <c r="V15" t="s"/>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
-      <c r="Z15" t="s"/>
-      <c r="AA15" t="s"/>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
-      <c r="AD15" t="s"/>
-      <c r="AE15" t="s"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="n">
         <v>175.3</v>
       </c>
@@ -3682,67 +3672,83 @@
       <c r="BW15" t="n">
         <v>88</v>
       </c>
-      <c r="BX15" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>123</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>124</v>
-      </c>
-      <c r="CA15" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>99</v>
-      </c>
-      <c r="CC15" t="s"/>
-      <c r="CD15" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE15" t="s">
-        <v>89</v>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>NESLCA_historical</t>
+        </is>
+      </c>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>JREIPH14</t>
+        </is>
+      </c>
+      <c r="BZ15" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Nationwide excluding Six Large City Areas, Average of Three Categories</t>
+        </is>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr">
+        <is>
+          <t>Average of Three Categories</t>
+        </is>
+      </c>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="CE15" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
-    <row r="16" spans="1:83">
-      <c r="A16" s="1" t="s">
-        <v>125</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>JREIPH15</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>283.9</v>
       </c>
-      <c r="C16" t="s"/>
-      <c r="D16" t="s"/>
-      <c r="E16" t="s"/>
-      <c r="F16" t="s"/>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-      <c r="K16" t="s"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>509.8</v>
       </c>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
-      <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
-      <c r="V16" t="s"/>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
-      <c r="Z16" t="s"/>
-      <c r="AA16" t="s"/>
-      <c r="AB16" t="s"/>
-      <c r="AC16" t="s"/>
-      <c r="AD16" t="s"/>
-      <c r="AE16" t="s"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="n">
         <v>231.3</v>
       </c>
@@ -3875,27 +3881,41 @@
       <c r="BW16" t="n">
         <v>90.5</v>
       </c>
-      <c r="BX16" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>125</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>126</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC16" t="s"/>
-      <c r="CD16" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>89</v>
+      <c r="BX16" t="inlineStr">
+        <is>
+          <t>NESLCA_historical</t>
+        </is>
+      </c>
+      <c r="BY16" t="inlineStr">
+        <is>
+          <t>JREIPH15</t>
+        </is>
+      </c>
+      <c r="BZ16" t="inlineStr">
+        <is>
+          <t>Property Prices, Urban Land Price Index, Nationwide excluding Six Large City Areas, The Highest Price Lot</t>
+        </is>
+      </c>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+      <c r="CB16" t="inlineStr">
+        <is>
+          <t>The Highest Price Lot</t>
+        </is>
+      </c>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="CE16" t="inlineStr">
+        <is>
+          <t>Index: 2010-S1=100</t>
+        </is>
       </c>
     </row>
   </sheetData>
